--- a/Week 3/Week 3 Questions.xlsx
+++ b/Week 3/Week 3 Questions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Cohort-30-Module 3.0.1.3.1.3</t>
   </si>
@@ -44,6 +44,27 @@
   </si>
   <si>
     <t>Masai | Rotate Linked List (masaischool.com)</t>
+  </si>
+  <si>
+    <t>Cohort-30-Module 3.0.1.3.1.4</t>
+  </si>
+  <si>
+    <t>Masai | Cohort-30-Module 3.0.1.3.1.4 (masaischool.com)</t>
+  </si>
+  <si>
+    <t>Masai | Palindrome List (masaischool.com)</t>
+  </si>
+  <si>
+    <t>Masai | Merge two Linked Lists (masaischool.com)</t>
+  </si>
+  <si>
+    <t>Masai | Delete node without head (masaischool.com)</t>
+  </si>
+  <si>
+    <t>Masai | Remove Duplicates (masaischool.com)</t>
+  </si>
+  <si>
+    <t>Masai | Linked List Cycle (masaischool.com)</t>
   </si>
 </sst>
 </file>
@@ -51,12 +72,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,18 +90,58 @@
       <color rgb="FF495060"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.25"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF495060"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,6 +155,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -101,41 +202,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,24 +226,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,47 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +460,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -460,72 +556,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,168 +565,171 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1017,78 +1051,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="33.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="56.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="1" max="1" width="33.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" ht="15.75" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1101,6 +1188,12 @@
     <hyperlink ref="C6" r:id="rId7" display="Masai | Nth node from the end (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4100/problem/06"/>
     <hyperlink ref="C7" r:id="rId8" display="Masai | Middle Node (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4100/problem/07"/>
     <hyperlink ref="C8" r:id="rId9" display="Masai | Rotate Linked List (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4100/problem/08"/>
+    <hyperlink ref="C9" r:id="rId10" display="Masai | Palindrome List (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4135/problem/01"/>
+    <hyperlink ref="C10" r:id="rId11" display="Masai | Merge two Linked Lists (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4135/problem/02"/>
+    <hyperlink ref="C11" r:id="rId12" display="Masai | Delete node without head (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4135/problem/03"/>
+    <hyperlink ref="C12" r:id="rId13" display="Masai | Remove Duplicates (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4135/problem/04"/>
+    <hyperlink ref="C13" r:id="rId14" display="Masai | Linked List Cycle (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4135/problem/05"/>
+    <hyperlink ref="B9" r:id="rId15" display="Masai | Cohort-30-Module 3.0.1.3.1.4 (masaischool.com)" tooltip="https://oj.masaischool.com/contest/4135"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
